--- a/classification/droptc/modern-bert/freeze/70681460/prediction.xlsx
+++ b/classification/droptc/modern-bert/freeze/70681460/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4096014797687531</v>
+        <v>0.639214813709259</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6060334444046021</v>
+        <v>0.5570583343505859</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7615171670913696</v>
+        <v>0.7482099533081055</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7379499077796936</v>
+        <v>0.3696007132530212</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5321147441864014</v>
+        <v>0.7853410840034485</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.7230968475341797</v>
       </c>
     </row>
     <row r="8">
@@ -646,7 +646,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6426293849945068</v>
+        <v>0.8188232183456421</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5950053334236145</v>
+        <v>0.5947936773300171</v>
       </c>
     </row>
     <row r="10">
@@ -702,7 +702,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -711,10 +711,10 @@
         </is>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8581766486167908</v>
+        <v>0.4559721946716309</v>
       </c>
     </row>
     <row r="11">
@@ -730,7 +730,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7614348530769348</v>
+        <v>0.4790975451469421</v>
       </c>
     </row>
     <row r="12">
@@ -758,7 +758,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -767,10 +767,10 @@
         </is>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7585315704345703</v>
+        <v>0.6384231448173523</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5712313055992126</v>
+        <v>0.9115338325500488</v>
       </c>
     </row>
     <row r="14">
@@ -814,7 +814,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.835422694683075</v>
+        <v>0.6883825063705444</v>
       </c>
     </row>
     <row r="15">
@@ -842,7 +842,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -851,10 +851,10 @@
         </is>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2796368002891541</v>
+        <v>0.4954945743083954</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4474138915538788</v>
+        <v>0.2509872019290924</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5950053334236145</v>
+        <v>0.6954131722450256</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3964706361293793</v>
+        <v>0.5530328750610352</v>
       </c>
     </row>
     <row r="19">
@@ -954,19 +954,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6007004976272583</v>
+        <v>0.3402656316757202</v>
       </c>
     </row>
     <row r="20">
@@ -982,19 +982,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.3814125061035156</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8637065887451172</v>
+        <v>0.608604371547699</v>
       </c>
     </row>
     <row r="22">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1047,10 +1047,10 @@
         </is>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3987219035625458</v>
+        <v>0.7184364795684814</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3920151591300964</v>
+        <v>0.7304089665412903</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4470960199832916</v>
+        <v>0.7573886513710022</v>
       </c>
     </row>
     <row r="25">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1131,10 +1131,10 @@
         </is>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5326834321022034</v>
+        <v>0.8414977192878723</v>
       </c>
     </row>
     <row r="26">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2796368002891541</v>
+        <v>0.8159806728363037</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8379799723625183</v>
+        <v>0.8667789101600647</v>
       </c>
     </row>
     <row r="28">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1215,10 +1215,10 @@
         </is>
       </c>
       <c r="E28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8732192516326904</v>
+        <v>0.3531582653522491</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6438146233558655</v>
+        <v>0.8721619248390198</v>
       </c>
     </row>
     <row r="30">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1271,10 +1271,10 @@
         </is>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7605918645858765</v>
+        <v>0.9513044953346252</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.610224723815918</v>
+        <v>0.5968879461288452</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.7381153106689453</v>
+        <v>0.5232335925102234</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9410161972045898</v>
+        <v>0.6384937763214111</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.6296296119689941</v>
       </c>
     </row>
     <row r="35">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1411,10 +1411,10 @@
         </is>
       </c>
       <c r="E35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.3126426637172699</v>
       </c>
     </row>
     <row r="36">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1439,10 +1439,10 @@
         </is>
       </c>
       <c r="E36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6815612316131592</v>
+        <v>0.5864365100860596</v>
       </c>
     </row>
     <row r="37">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1467,10 +1467,10 @@
         </is>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3655989468097687</v>
+        <v>0.880048930644989</v>
       </c>
     </row>
     <row r="38">
@@ -1486,19 +1486,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4823233783245087</v>
+        <v>0.4687707126140594</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7091756463050842</v>
+        <v>0.5830485820770264</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7464362382888794</v>
+        <v>0.2830460965633392</v>
       </c>
     </row>
     <row r="41">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1579,10 +1579,10 @@
         </is>
       </c>
       <c r="E41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.6017884016036987</v>
+        <v>0.5473974943161011</v>
       </c>
     </row>
     <row r="42">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1607,10 +1607,10 @@
         </is>
       </c>
       <c r="E42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.5839254856109619</v>
+        <v>0.8250746130943298</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.6112000942230225</v>
+        <v>0.3757091164588928</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5030508637428284</v>
+        <v>0.8572239279747009</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.6033989787101746</v>
+        <v>0.7084183096885681</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7698906660079956</v>
+        <v>0.6822481751441956</v>
       </c>
     </row>
     <row r="47">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6774432063102722</v>
+        <v>0.8399920463562012</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6084575057029724</v>
+        <v>0.5560165047645569</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.3665525019168854</v>
+        <v>0.3808751106262207</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6210138201713562</v>
+        <v>0.6015685200691223</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.5918460488319397</v>
+        <v>0.7268052101135254</v>
       </c>
     </row>
     <row r="52">
@@ -1878,19 +1878,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8660696148872375</v>
+        <v>0.2549888491630554</v>
       </c>
     </row>
     <row r="53">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1915,10 +1915,10 @@
         </is>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.258831262588501</v>
+        <v>0.5104190111160278</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.6663077473640442</v>
+        <v>0.9115338325500488</v>
       </c>
     </row>
     <row r="55">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.6057952642440796</v>
+        <v>0.5240914225578308</v>
       </c>
     </row>
     <row r="56">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="E56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5789650082588196</v>
+        <v>0.5559322237968445</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.6966500878334045</v>
+        <v>0.4611583650112152</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.385038435459137</v>
+        <v>0.374029815196991</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.795908510684967</v>
+        <v>0.6804168820381165</v>
       </c>
     </row>
     <row r="60">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2111,10 +2111,10 @@
         </is>
       </c>
       <c r="E60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2796368002891541</v>
+        <v>0.9115338325500488</v>
       </c>
     </row>
     <row r="61">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0.412559300661087</v>
+        <v>0.4160305857658386</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7020283937454224</v>
+        <v>0.6825627684593201</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8193920254707336</v>
+        <v>0.7691954374313354</v>
       </c>
     </row>
     <row r="64">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2223,10 +2223,10 @@
         </is>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.6438146233558655</v>
+        <v>0.4706262648105621</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2936906218528748</v>
+        <v>0.2509872019290924</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.7872709631919861</v>
       </c>
     </row>
     <row r="67">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2307,10 +2307,10 @@
         </is>
       </c>
       <c r="E67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.7726697325706482</v>
       </c>
     </row>
     <row r="68">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2335,10 +2335,10 @@
         </is>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.8234368562698364</v>
+        <v>0.8335133194923401</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7050462365150452</v>
+        <v>0.7641144394874573</v>
       </c>
     </row>
     <row r="70">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2391,10 +2391,10 @@
         </is>
       </c>
       <c r="E70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9026284217834473</v>
+        <v>0.5307673811912537</v>
       </c>
     </row>
     <row r="71">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2419,10 +2419,10 @@
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.6391913890838623</v>
+        <v>0.3399128913879395</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.703619658946991</v>
+        <v>0.773170530796051</v>
       </c>
     </row>
     <row r="73">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="E73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0.7607497572898865</v>
+        <v>0.5066479444503784</v>
       </c>
     </row>
     <row r="74">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2503,10 +2503,10 @@
         </is>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.6459665298461914</v>
+        <v>0.8073093891143799</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.8360492587089539</v>
+        <v>0.7417658567428589</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0.7410905957221985</v>
+        <v>0.2688439190387726</v>
       </c>
     </row>
     <row r="77">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="E77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7478903532028198</v>
+        <v>0.3510933816432953</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8702749609947205</v>
+        <v>0.5034858584403992</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8081175684928894</v>
+        <v>0.8275322914123535</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.5653080344200134</v>
+        <v>0.7525116801261902</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.6413590908050537</v>
+        <v>0.7228823900222778</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.7034230828285217</v>
+        <v>0.5998611450195312</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0.4932194948196411</v>
+        <v>0.6236807107925415</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7928641438484192</v>
+        <v>0.822269082069397</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.3275575339794159</v>
+        <v>0.8331034779548645</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.5352857708930969</v>
+        <v>0.6638150811195374</v>
       </c>
     </row>
     <row r="87">
@@ -2863,14 +2863,14 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.5125665068626404</v>
+        <v>0.4421392977237701</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6810833215713501</v>
+        <v>0.277661919593811</v>
       </c>
     </row>
     <row r="89">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.4123875200748444</v>
+        <v>0.6047796607017517</v>
       </c>
     </row>
     <row r="90">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="E90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.4790975451469421</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.8558724522590637</v>
+        <v>0.9115338325500488</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.410637229681015</v>
+        <v>0.901507556438446</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.5792056322097778</v>
+        <v>0.5556713342666626</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9518547058105469</v>
+        <v>0.7462068796157837</v>
       </c>
     </row>
     <row r="95">
@@ -3082,19 +3082,19 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E95" t="b">
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6347335577011108</v>
+        <v>0.2907290756702423</v>
       </c>
     </row>
     <row r="96">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3119,10 +3119,10 @@
         </is>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4968899786472321</v>
+        <v>0.8617560863494873</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6414059400558472</v>
+        <v>0.345132440328598</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.610224723815918</v>
+        <v>0.5830485820770264</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.6620907187461853</v>
+        <v>0.5978180170059204</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.6049568057060242</v>
+        <v>0.817625105381012</v>
       </c>
     </row>
     <row r="101">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5957988500595093</v>
+        <v>0.6154887080192566</v>
       </c>
     </row>
     <row r="102">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3287,10 +3287,10 @@
         </is>
       </c>
       <c r="E102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8114293813705444</v>
+        <v>0.595018744468689</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.4914695024490356</v>
+        <v>0.6170042157173157</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.6336064338684082</v>
+        <v>0.7283060550689697</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.6919984817504883</v>
+        <v>0.6657004356384277</v>
       </c>
     </row>
     <row r="106">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3399,10 +3399,10 @@
         </is>
       </c>
       <c r="E106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>0.7156000733375549</v>
+        <v>0.4776391386985779</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.7332616448402405</v>
+        <v>0.3611700534820557</v>
       </c>
     </row>
     <row r="108">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3455,10 +3455,10 @@
         </is>
       </c>
       <c r="E108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.5931234359741211</v>
+        <v>0.8650251030921936</v>
       </c>
     </row>
     <row r="109">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.3665525019168854</v>
+        <v>0.440154641866684</v>
       </c>
     </row>
     <row r="110">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3511,10 +3511,10 @@
         </is>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.281939297914505</v>
+        <v>0.7531738877296448</v>
       </c>
     </row>
     <row r="111">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3539,10 +3539,10 @@
         </is>
       </c>
       <c r="E111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>0.6811848282814026</v>
+        <v>0.2699154317378998</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.3877513408660889</v>
+        <v>0.8103927373886108</v>
       </c>
     </row>
     <row r="113">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3595,10 +3595,10 @@
         </is>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.5314717888832092</v>
+        <v>0.7296415567398071</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.2590746581554413</v>
+        <v>0.6696125268936157</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.9041017889976501</v>
       </c>
     </row>
     <row r="116">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3679,10 +3679,10 @@
         </is>
       </c>
       <c r="E116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.7699278593063354</v>
+        <v>0.7416484951972961</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.6204272508621216</v>
+        <v>0.880048930644989</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.2489601224660873</v>
+        <v>0.4017801880836487</v>
       </c>
     </row>
     <row r="119">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="E119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.4333881735801697</v>
+        <v>0.9115338325500488</v>
       </c>
     </row>
     <row r="120">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3791,10 +3791,10 @@
         </is>
       </c>
       <c r="E120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>0.8460242748260498</v>
+        <v>0.5910660028457642</v>
       </c>
     </row>
     <row r="121">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3819,10 +3819,10 @@
         </is>
       </c>
       <c r="E121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0.8240159153938293</v>
+        <v>0.5482267141342163</v>
       </c>
     </row>
     <row r="122">
@@ -3843,14 +3843,14 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.3939111828804016</v>
+        <v>0.4687707126140594</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.7816299796104431</v>
+        <v>0.6407999992370605</v>
       </c>
     </row>
     <row r="124">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3903,10 +3903,10 @@
         </is>
       </c>
       <c r="E124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>0.7663061618804932</v>
+        <v>0.3343583941459656</v>
       </c>
     </row>
     <row r="125">
@@ -3922,7 +3922,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3931,10 +3931,10 @@
         </is>
       </c>
       <c r="E125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.5257512927055359</v>
+        <v>0.7752118706703186</v>
       </c>
     </row>
     <row r="126">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3959,10 +3959,10 @@
         </is>
       </c>
       <c r="E126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>0.7181354761123657</v>
+        <v>0.7627527117729187</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.4123875200748444</v>
+        <v>0.5777746438980103</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.782905101776123</v>
+        <v>0.7522622346878052</v>
       </c>
     </row>
     <row r="129">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4043,10 +4043,10 @@
         </is>
       </c>
       <c r="E129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.2566835880279541</v>
+        <v>0.5910122394561768</v>
       </c>
     </row>
     <row r="130">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.4728507697582245</v>
+        <v>0.7720673680305481</v>
       </c>
     </row>
     <row r="131">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4099,10 +4099,10 @@
         </is>
       </c>
       <c r="E131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.2896145880222321</v>
+        <v>0.5975775122642517</v>
       </c>
     </row>
     <row r="132">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.7606334686279297</v>
+        <v>0.2800717651844025</v>
       </c>
     </row>
     <row r="133">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4155,10 +4155,10 @@
         </is>
       </c>
       <c r="E133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>0.7739090919494629</v>
+        <v>0.3696007132530212</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.5765131115913391</v>
+        <v>0.9115338325500488</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.8331655859947205</v>
+        <v>0.8426513075828552</v>
       </c>
     </row>
     <row r="136">
@@ -4230,7 +4230,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4239,10 +4239,10 @@
         </is>
       </c>
       <c r="E136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.2896145880222321</v>
+        <v>0.9115338325500488</v>
       </c>
     </row>
     <row r="137">
@@ -4263,14 +4263,14 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.5277919173240662</v>
+        <v>0.4478525519371033</v>
       </c>
     </row>
     <row r="138">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4298,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>0.7061224579811096</v>
+        <v>0.5989188551902771</v>
       </c>
     </row>
     <row r="139">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4323,10 +4323,10 @@
         </is>
       </c>
       <c r="E139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>0.7430756688117981</v>
+        <v>0.5109794735908508</v>
       </c>
     </row>
     <row r="140">
@@ -4347,14 +4347,14 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.3250497281551361</v>
+        <v>0.4687707126140594</v>
       </c>
     </row>
     <row r="141">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4379,10 +4379,10 @@
         </is>
       </c>
       <c r="E141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.8289533853530884</v>
+        <v>0.5491557121276855</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.7032645344734192</v>
+        <v>0.9115338325500488</v>
       </c>
     </row>
     <row r="143">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4435,10 +4435,10 @@
         </is>
       </c>
       <c r="E143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.4723906815052032</v>
+        <v>0.5917991995811462</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9558462500572205</v>
+        <v>0.7688287496566772</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.4200733602046967</v>
+        <v>0.6884672045707703</v>
       </c>
     </row>
     <row r="146">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.3422785103321075</v>
+        <v>0.3139351010322571</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>0.314613401889801</v>
+        <v>0.5126103758811951</v>
       </c>
     </row>
     <row r="148">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4575,10 +4575,10 @@
         </is>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.4789038896560669</v>
+        <v>0.6601400375366211</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.6332610845565796</v>
       </c>
     </row>
     <row r="150">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4631,10 +4631,10 @@
         </is>
       </c>
       <c r="E150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.5095199346542358</v>
+        <v>0.3485672473907471</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.7404860854148865</v>
+        <v>0.634651243686676</v>
       </c>
     </row>
     <row r="152">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4687,10 +4687,10 @@
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.8819120526313782</v>
+        <v>0.5207020044326782</v>
       </c>
     </row>
     <row r="153">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4715,10 +4715,10 @@
         </is>
       </c>
       <c r="E153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>0.7467293739318848</v>
+        <v>0.6803411245346069</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.586546778678894</v>
+        <v>0.6639368534088135</v>
       </c>
     </row>
     <row r="155">
@@ -4762,19 +4762,19 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.3065287470817566</v>
+        <v>0.6799876093864441</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.4188736379146576</v>
+        <v>0.9349987506866455</v>
       </c>
     </row>
     <row r="157">
@@ -4818,19 +4818,19 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E157" t="b">
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.7291218638420105</v>
+        <v>0.2830460965633392</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.6180161237716675</v>
+        <v>0.9115338325500488</v>
       </c>
     </row>
     <row r="159">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4883,10 +4883,10 @@
         </is>
       </c>
       <c r="E159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.5676313638687134</v>
+        <v>0.7588921189308167</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.617241382598877</v>
+        <v>0.6407999992370605</v>
       </c>
     </row>
     <row r="161">
@@ -4930,19 +4930,19 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>0.6840155720710754</v>
+        <v>0.4434959888458252</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.8044084906578064</v>
+        <v>0.3126426637172699</v>
       </c>
     </row>
     <row r="163">
@@ -4986,7 +4986,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4995,10 +4995,10 @@
         </is>
       </c>
       <c r="E163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>0.5136010050773621</v>
+        <v>0.6193124055862427</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.6383135318756104</v>
+        <v>0.608604371547699</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E165" t="b">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>0.6152170896530151</v>
+        <v>0.2509872019290924</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.677447497844696</v>
+        <v>0.9273147583007812</v>
       </c>
     </row>
     <row r="167">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5107,10 +5107,10 @@
         </is>
       </c>
       <c r="E167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>0.7399293780326843</v>
+        <v>0.4057299494743347</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.3179842233657837</v>
+        <v>0.4018647968769073</v>
       </c>
     </row>
     <row r="169">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5163,10 +5163,10 @@
         </is>
       </c>
       <c r="E169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>0.8437055945396423</v>
+        <v>0.4146586656570435</v>
       </c>
     </row>
     <row r="170">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5191,10 +5191,10 @@
         </is>
       </c>
       <c r="E170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.4474138915538788</v>
+        <v>0.622346818447113</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>0.3187676668167114</v>
+        <v>0.8440593481063843</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.8724782466888428</v>
+        <v>0.9150458574295044</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.5038226246833801</v>
+        <v>0.3412723541259766</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.6113190650939941</v>
+        <v>0.8646235466003418</v>
       </c>
     </row>
     <row r="175">
@@ -5322,7 +5322,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="E175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>0.5771687626838684</v>
+        <v>0.4276446104049683</v>
       </c>
     </row>
     <row r="176">
@@ -5350,7 +5350,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5359,10 +5359,10 @@
         </is>
       </c>
       <c r="E176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.3631279468536377</v>
+        <v>0.6307317614555359</v>
       </c>
     </row>
     <row r="177">
@@ -5378,7 +5378,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5387,10 +5387,10 @@
         </is>
       </c>
       <c r="E177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>0.8614095449447632</v>
+        <v>0.5377489328384399</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.6007004976272583</v>
+        <v>0.6455176472663879</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.6649743914604187</v>
+        <v>0.6376610398292542</v>
       </c>
     </row>
     <row r="180">
@@ -5462,7 +5462,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5471,10 +5471,10 @@
         </is>
       </c>
       <c r="E180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.4266336262226105</v>
+        <v>0.7511914968490601</v>
       </c>
     </row>
     <row r="181">
@@ -5490,7 +5490,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5499,10 +5499,10 @@
         </is>
       </c>
       <c r="E181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>0.6336957216262817</v>
+        <v>0.7192655205726624</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.5680606961250305</v>
+        <v>0.805890679359436</v>
       </c>
     </row>
     <row r="183">
@@ -5546,7 +5546,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5555,10 +5555,10 @@
         </is>
       </c>
       <c r="E183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.3265554904937744</v>
+        <v>0.7202571034431458</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.3877513408660889</v>
+        <v>0.6979567408561707</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.8634065985679626</v>
+        <v>0.7067149877548218</v>
       </c>
     </row>
     <row r="186">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5639,10 +5639,10 @@
         </is>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.4875545501708984</v>
+        <v>0.6776160597801208</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.6368314623832703</v>
+        <v>0.5556713342666626</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.6558406352996826</v>
+        <v>0.647294819355011</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.3877513408660889</v>
+        <v>0.3757091164588928</v>
       </c>
     </row>
     <row r="190">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5751,10 +5751,10 @@
         </is>
       </c>
       <c r="E190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.3063596785068512</v>
+        <v>0.8356314301490784</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.8858781456947327</v>
+        <v>0.5994696617126465</v>
       </c>
     </row>
     <row r="192">
@@ -5803,14 +5803,14 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.3548375070095062</v>
+        <v>0.3958503901958466</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.6997365355491638</v>
+        <v>0.5805723667144775</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>0.4123875200748444</v>
+        <v>0.3184345960617065</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.6693964600563049</v>
+        <v>0.7261018753051758</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.769239068031311</v>
+        <v>0.7180429697036743</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.6082947254180908</v>
+        <v>0.5874982476234436</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E198" t="b">
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9181444048881531</v>
+        <v>0.3757091164588928</v>
       </c>
     </row>
     <row r="199">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6003,10 +6003,10 @@
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.3689545392990112</v>
+        <v>0.6317888498306274</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.7717381119728088</v>
+        <v>0.599821150302887</v>
       </c>
     </row>
     <row r="201">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6062,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>0.5185515284538269</v>
+        <v>0.4180534482002258</v>
       </c>
     </row>
     <row r="202">
@@ -6078,19 +6078,19 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E202" t="b">
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.7778035998344421</v>
+        <v>0.3116154968738556</v>
       </c>
     </row>
     <row r="203">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="F203" t="n">
-        <v>0.8072157502174377</v>
+        <v>0.5953878164291382</v>
       </c>
     </row>
     <row r="204">
@@ -6134,7 +6134,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>0.3179842233657837</v>
+        <v>0.3858894407749176</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.6839323043823242</v>
+        <v>0.5768076181411743</v>
       </c>
     </row>
     <row r="206">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6199,10 +6199,10 @@
         </is>
       </c>
       <c r="E206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.7519806623458862</v>
+        <v>0.8347036242485046</v>
       </c>
     </row>
     <row r="207">
@@ -6218,7 +6218,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6227,10 +6227,10 @@
         </is>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.4055080413818359</v>
+        <v>0.6556527614593506</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.8030769228935242</v>
+        <v>0.7045800685882568</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.8732192516326904</v>
+        <v>0.6875952482223511</v>
       </c>
     </row>
     <row r="210">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6311,10 +6311,10 @@
         </is>
       </c>
       <c r="E210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>0.5765379667282104</v>
+        <v>0.394711434841156</v>
       </c>
     </row>
   </sheetData>
